--- a/OWASP_penetration testing checklist.xlsx
+++ b/OWASP_penetration testing checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E676467-2758-4E18-9B35-7B06AD5C1951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B01480-B7E8-438E-9A0D-B3AAD685020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,9 +738,6 @@
     <t>Test Local Storage</t>
   </si>
   <si>
-    <t>Use a search engine to search for Network diagrams and Configurations, Credentials, Error message content.</t>
-  </si>
-  <si>
     <t>Find the version and type of a running web server to determine known vulnerabilities and the appropriate exploits. Using
 "HTTP header field ordering" and "Malformed requests test".</t>
   </si>
@@ -752,9 +749,6 @@
   </si>
   <si>
     <t>Find applications hosted in the webserver (Virtual hosts/Subdomain), non-standard ports, DNS zone transfers</t>
-  </si>
-  <si>
-    <t>Google Hacking, Sitedigger, Shodan, FOCA, Punkspider</t>
   </si>
   <si>
     <t>Find sensitive information from webpage comments and Metadata on source code.</t>
@@ -1235,6 +1229,13 @@
   </si>
   <si>
     <t>Penetration testing checklist</t>
+  </si>
+  <si>
+    <t>Use a search engine to search for Network diagrams and Configurations, Credentials, Error message content.
+(Exp: google hacking: site:example.com ; site:example.com ext:pdf  ; "index of/" site:example.com ;</t>
+  </si>
+  <si>
+    <t>Google Hacking, Shodan.io, FOCA, Punkspider</t>
   </si>
 </sst>
 </file>
@@ -3362,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1" s="31"/>
       <c r="E1" s="11"/>
@@ -3397,7 +3398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3405,10 +3406,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>29</v>
@@ -3422,10 +3423,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>29</v>
@@ -3439,10 +3440,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
@@ -3456,10 +3457,10 @@
         <v>45</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>29</v>
@@ -3473,10 +3474,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>29</v>
@@ -3493,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
@@ -3507,10 +3508,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
@@ -3524,10 +3525,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>29</v>
@@ -3542,10 +3543,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>29</v>
@@ -3560,10 +3561,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>29</v>
@@ -3605,10 +3606,10 @@
         <v>59</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>29</v>
@@ -3622,10 +3623,10 @@
         <v>60</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>29</v>
@@ -3642,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>29</v>
@@ -3659,7 +3660,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>29</v>
@@ -3676,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
@@ -3690,10 +3691,10 @@
         <v>64</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>29</v>
@@ -3707,10 +3708,10 @@
         <v>65</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>29</v>
@@ -3725,10 +3726,10 @@
         <v>66</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>29</v>
@@ -3769,10 +3770,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>29</v>
@@ -3786,10 +3787,10 @@
         <v>76</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>29</v>
@@ -3804,10 +3805,10 @@
         <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>29</v>
@@ -3825,7 +3826,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>29</v>
@@ -3840,10 +3841,10 @@
         <v>79</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>29</v>
@@ -3858,10 +3859,10 @@
         <v>80</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>29</v>
@@ -3876,10 +3877,10 @@
         <v>81</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>29</v>
@@ -3921,10 +3922,10 @@
         <v>92</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>29</v>
@@ -3938,10 +3939,10 @@
         <v>93</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>29</v>
@@ -3955,10 +3956,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>29</v>
@@ -3972,10 +3973,10 @@
         <v>95</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>29</v>
@@ -3989,10 +3990,10 @@
         <v>96</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>29</v>
@@ -4006,10 +4007,10 @@
         <v>97</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>29</v>
@@ -4023,10 +4024,10 @@
         <v>98</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>29</v>
@@ -4041,10 +4042,10 @@
         <v>99</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>29</v>
@@ -4058,10 +4059,10 @@
         <v>100</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>29</v>
@@ -4075,10 +4076,10 @@
         <v>101</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>29</v>
@@ -4119,10 +4120,10 @@
         <v>106</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>29</v>
@@ -4136,10 +4137,10 @@
         <v>107</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>29</v>
@@ -4156,7 +4157,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>29</v>
@@ -4170,10 +4171,10 @@
         <v>109</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>29</v>
@@ -4216,10 +4217,10 @@
         <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>29</v>
@@ -4233,10 +4234,10 @@
         <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>29</v>
@@ -4250,10 +4251,10 @@
         <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>29</v>
@@ -4268,10 +4269,10 @@
         <v>122</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>29</v>
@@ -4285,10 +4286,10 @@
         <v>123</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>29</v>
@@ -4302,10 +4303,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>29</v>
@@ -4319,10 +4320,10 @@
         <v>125</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>29</v>
@@ -4336,10 +4337,10 @@
         <v>126</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>29</v>
@@ -4382,10 +4383,10 @@
         <v>127</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>29</v>
@@ -4399,10 +4400,10 @@
         <v>128</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>29</v>
@@ -4416,10 +4417,10 @@
         <v>129</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>29</v>
@@ -4434,10 +4435,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>29</v>
@@ -4451,10 +4452,10 @@
         <v>131</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>29</v>
@@ -4466,10 +4467,10 @@
         <v>132</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>29</v>
@@ -4481,10 +4482,10 @@
         <v>133</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>29</v>
@@ -4496,10 +4497,10 @@
         <v>134</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>29</v>
@@ -4510,10 +4511,10 @@
         <v>135</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>29</v>
@@ -4526,10 +4527,10 @@
         <v>136</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>29</v>
@@ -4541,10 +4542,10 @@
         <v>137</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>29</v>
@@ -4558,10 +4559,10 @@
         <v>138</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>29</v>
@@ -4578,7 +4579,7 @@
         <v>19</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>29</v>
@@ -4592,10 +4593,10 @@
         <v>140</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>29</v>
@@ -4609,10 +4610,10 @@
         <v>141</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>29</v>
@@ -4626,10 +4627,10 @@
         <v>142</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>29</v>
@@ -4643,10 +4644,10 @@
         <v>143</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>29</v>
@@ -4660,10 +4661,10 @@
         <v>144</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>29</v>
@@ -4675,10 +4676,10 @@
         <v>145</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>29</v>
@@ -4691,10 +4692,10 @@
         <v>146</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>29</v>
@@ -4709,10 +4710,10 @@
         <v>147</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>29</v>
@@ -4730,7 +4731,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>29</v>
@@ -4781,10 +4782,10 @@
         <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>29</v>
@@ -4802,7 +4803,7 @@
         <v>21</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>29</v>
@@ -4844,10 +4845,10 @@
         <v>171</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>29</v>
@@ -4862,10 +4863,10 @@
         <v>172</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>29</v>
@@ -4907,10 +4908,10 @@
         <v>176</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>29</v>
@@ -4925,10 +4926,10 @@
         <v>177</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>29</v>
@@ -4943,10 +4944,10 @@
         <v>178</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>29</v>
@@ -4987,10 +4988,10 @@
         <v>192</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>29</v>
@@ -5004,10 +5005,10 @@
         <v>193</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>29</v>
@@ -5021,10 +5022,10 @@
         <v>194</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>29</v>
@@ -5039,10 +5040,10 @@
         <v>195</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>29</v>
@@ -5057,10 +5058,10 @@
         <v>196</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>29</v>
@@ -5075,10 +5076,10 @@
         <v>197</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>29</v>
@@ -5093,10 +5094,10 @@
         <v>198</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>29</v>
@@ -5111,10 +5112,10 @@
         <v>199</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>29</v>
@@ -5129,10 +5130,10 @@
         <v>200</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>29</v>
@@ -5178,7 +5179,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>29</v>
@@ -5193,10 +5194,10 @@
         <v>215</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>29</v>
@@ -5211,10 +5212,10 @@
         <v>216</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>29</v>
@@ -5229,10 +5230,10 @@
         <v>217</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>29</v>
@@ -5247,10 +5248,10 @@
         <v>218</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>29</v>
@@ -5265,10 +5266,10 @@
         <v>219</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>29</v>
@@ -5283,10 +5284,10 @@
         <v>220</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E119" s="20" t="s">
         <v>29</v>
@@ -5304,7 +5305,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>29</v>
@@ -5319,10 +5320,10 @@
         <v>222</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>29</v>
@@ -5337,10 +5338,10 @@
         <v>223</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>29</v>
@@ -5354,10 +5355,10 @@
         <v>224</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>29</v>
@@ -5372,10 +5373,10 @@
         <v>225</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>29</v>
@@ -5993,16 +5994,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>8</v>
@@ -6014,13 +6015,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -6028,13 +6029,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>26</v>
@@ -6048,7 +6049,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/OWASP_penetration testing checklist.xlsx
+++ b/OWASP_penetration testing checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B01480-B7E8-438E-9A0D-B3AAD685020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D20BF4-4ADC-47E3-92F5-1B5656E57DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="PolicyViolation">#REF!</definedName>
     <definedName name="PopulationSize">#REF!</definedName>
     <definedName name="ReputationDamage">#REF!</definedName>
-    <definedName name="result">'Testing Checklist'!$A$128:$A$130</definedName>
+    <definedName name="result">'Testing Checklist'!$A$129:$A$131</definedName>
     <definedName name="SkillRequired">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="374">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -755,9 +755,6 @@
   </si>
   <si>
     <t>Map the target application and understand the principal workflows.</t>
-  </si>
-  <si>
-    <t>Analyze robots.txt and identify &lt;META&gt; Tags from website.</t>
   </si>
   <si>
     <t>Find the type of web application framework/CMS from HTTP headers, Cookies, Source code, Specific files and folders.</t>
@@ -1236,6 +1233,18 @@
   </si>
   <si>
     <t>Google Hacking, Shodan.io, FOCA, Punkspider</t>
+  </si>
+  <si>
+    <t>Identify directories</t>
+  </si>
+  <si>
+    <t>Identify directories and files using dirbuster or burpsuite directories payload</t>
+  </si>
+  <si>
+    <t>Burp proxy, ZAP, Dirbuster, Dirb</t>
+  </si>
+  <si>
+    <t>Analyze robots.txt , sitemap.xml and identify &lt;META&gt; Tags from website.</t>
   </si>
 </sst>
 </file>
@@ -1550,6 +1559,314 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2539,314 +2856,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2861,14 +2870,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="70">
-  <autoFilter ref="A4:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="114">
+  <autoFilter ref="A4:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="109"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2876,14 +2885,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A96:F99" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A97:F100" totalsRowShown="0" headerRowDxfId="60">
+  <autoFilter ref="A97:F100" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="55"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2891,14 +2900,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A112:F124" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A113:F125" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A113:F125" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="49"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2906,14 +2915,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="64">
-  <autoFilter ref="A16:F24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A17:F25" totalsRowShown="0" headerRowDxfId="108">
+  <autoFilter ref="A17:F25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="103"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2921,14 +2930,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="58">
-  <autoFilter ref="A35:F45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A36:F46" totalsRowShown="0" headerRowDxfId="102">
+  <autoFilter ref="A36:F46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="97"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2936,14 +2945,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="52">
-  <autoFilter ref="A53:F61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A54:F62" totalsRowShown="0" headerRowDxfId="96">
+  <autoFilter ref="A54:F62" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="91"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2951,14 +2960,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="46">
-  <autoFilter ref="A47:F51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A48:F52" totalsRowShown="0" headerRowDxfId="90">
+  <autoFilter ref="A48:F52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="85"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2966,14 +2975,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="40">
-  <autoFilter ref="A101:F110" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A102:F111" totalsRowShown="0" headerRowDxfId="84">
+  <autoFilter ref="A102:F111" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="79"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2981,14 +2990,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="A63:F90" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A64:F91" totalsRowShown="0" headerRowDxfId="78">
+  <autoFilter ref="A64:F91" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="73"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2996,14 +3005,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A26:F33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A27:F34" totalsRowShown="0" headerRowDxfId="72">
+  <autoFilter ref="A27:F34" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="67"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3011,14 +3020,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A92:F94" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A93:F95" totalsRowShown="0" headerRowDxfId="66">
+  <autoFilter ref="A93:F95" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="61"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3346,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="31"/>
       <c r="E1" s="11"/>
@@ -3406,10 +3415,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>369</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>370</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>29</v>
@@ -3432,7 +3441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>228</v>
@@ -3460,7 +3469,7 @@
         <v>229</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>29</v>
@@ -3488,13 +3497,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
@@ -3511,7 +3520,7 @@
         <v>231</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
@@ -3525,10 +3534,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>29</v>
@@ -3543,323 +3552,322 @@
         <v>49</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="D19" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="D24" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D25" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="E25" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>345</v>
-      </c>
       <c r="E28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>257</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>259</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>345</v>
@@ -3869,131 +3877,132 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="D37" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="D38" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="23" t="s">
+      <c r="D39" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="E39" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>266</v>
-      </c>
       <c r="D40" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>29</v>
@@ -4001,30 +4010,30 @@
     </row>
     <row r="41" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C42" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>347</v>
@@ -4032,115 +4041,115 @@
       <c r="E42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="F43"/>
     </row>
     <row r="44" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="23" t="s">
+      <c r="D46" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>273</v>
-      </c>
       <c r="D49" s="26" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>29</v>
@@ -4148,96 +4157,96 @@
     </row>
     <row r="50" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="D51" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="C52" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>29</v>
@@ -4245,247 +4254,249 @@
     </row>
     <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D59" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>280</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="5"/>
+      <c r="C62" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F64" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="E67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="23" t="s">
+      <c r="D68" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="E68" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>291</v>
-      </c>
       <c r="D69" s="26" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>29</v>
@@ -4494,257 +4505,260 @@
     <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C72" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="E72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="25" t="s">
+      <c r="D73" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>297</v>
-      </c>
       <c r="E73" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="F73"/>
     </row>
     <row r="74" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C75" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="25" t="s">
+      <c r="D76" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="D75" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="26" t="s">
+      <c r="E77" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="D78" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D80" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="D81" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="D82" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="25" t="s">
+      <c r="D83" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="25" t="s">
+      <c r="D84" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D83" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D85" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="27"/>
+      <c r="D86" s="27" t="s">
+        <v>356</v>
+      </c>
       <c r="E86" s="6" t="s">
         <v>29</v>
       </c>
@@ -4753,7 +4767,7 @@
     <row r="87" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="27"/>
@@ -4765,7 +4779,7 @@
     <row r="88" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="27"/>
@@ -4774,276 +4788,270 @@
       </c>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="E90" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="27" t="s">
+      <c r="D94" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="E100" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="25"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E102" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F102" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="25"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C103" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C103" s="23" t="s">
+      <c r="D104" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" ht="80.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>325</v>
-      </c>
       <c r="D105" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>29</v>
@@ -5052,152 +5060,152 @@
     </row>
     <row r="106" spans="1:6" ht="80.400000000000006" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="80.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>326</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" ht="91.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="91.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C110" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D109" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="3"/>
+      <c r="D111" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D113" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E113" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F113" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>330</v>
-      </c>
       <c r="D114" s="26" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>29</v>
@@ -5206,214 +5214,232 @@
     </row>
     <row r="115" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="C117" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C118" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D117" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="23" t="s">
+      <c r="D119" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D118" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E118" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C119" s="23" t="s">
+      <c r="D120" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="D119" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="E122" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="E122" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C123" s="23" t="s">
         <v>339</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C125" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D125" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="D124" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E124" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+      <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="23"/>
       <c r="D126" s="26"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>29</v>
-      </c>
+    <row r="127" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="19"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5424,8 +5450,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="E17:E24 E97:E99 E102:E110 E93:E94 E54:E61 E27:E33 E5:E14 E48:E51 E36:E45 E64:E90 E113:E124" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$127:$A$130</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="E18:E25 E114:E125 E65:E91 E37:E46 E49:E52 E98:E100 E28:E34 E55:E62 E94:E95 E103:E111 E5:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$A$128:$A$131</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5449,8 +5475,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="56" operator="containsText" id="{008552C7-C685-4749-A33D-9EF7091021CE}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E5)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E5)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5460,8 +5486,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="57" operator="containsText" id="{3B899D41-0C5C-43DC-9D89-94A14AF45622}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E5)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E5)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5471,8 +5497,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="58" operator="containsText" id="{EAE4179F-0266-4AC7-82CC-613998F928E7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E5)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E5)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5482,8 +5508,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="59" operator="containsText" id="{4FA9379C-E461-480C-BB32-12C52394960B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E5)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E5)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5492,12 +5518,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E5:E14</xm:sqref>
+          <xm:sqref>E5:E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="52" operator="containsText" id="{A8DD7C1C-AEF9-43F9-933F-6E8D865BF1A1}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E17)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E18)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5507,8 +5533,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="53" operator="containsText" id="{CDCEE18B-B296-4A40-AD0E-E61D93AF133E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E17)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E18)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5518,8 +5544,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="54" operator="containsText" id="{FABBEE0A-B8CB-4C75-A424-F45C0E97E740}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E17)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E18)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5529,8 +5555,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="55" operator="containsText" id="{B2664265-30A1-4864-B9E8-BF45CFD18E4D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E17)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E18)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5539,12 +5565,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E17:E24</xm:sqref>
+          <xm:sqref>E18:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="48" operator="containsText" id="{EC9BBCC6-7880-4D72-9582-330BD83C636B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E27)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E28)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5554,8 +5580,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="49" operator="containsText" id="{A7E4B27F-392F-4316-83F8-0EA56FF9B846}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E27)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E28)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5565,8 +5591,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="50" operator="containsText" id="{8CBEC4A1-2AF1-40D1-9EEB-AC1C5DF5D103}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E27)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E28)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5576,8 +5602,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="51" operator="containsText" id="{E3FF6529-D53D-464E-83AF-60D2F80D3C33}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E27)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E28)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5586,12 +5612,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E27:E33</xm:sqref>
+          <xm:sqref>E28:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{CF56A58F-047A-44B2-820B-49C0F52592C7}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E36)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E37)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5601,8 +5627,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{DE2746F3-42BB-4D12-A2FC-3B5F7C303DD0}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E36)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E37)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5612,8 +5638,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="42" operator="containsText" id="{9F5A3990-D021-4607-BF5B-D0B2467D035B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E36)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E37)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5623,8 +5649,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="43" operator="containsText" id="{D1121675-7F83-4D07-8A4F-D676B14B49D9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E36)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E37)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5633,12 +5659,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E36:E45</xm:sqref>
+          <xm:sqref>E37:E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="32" operator="containsText" id="{A4D8EE0B-F6CD-4F63-AB4E-C4CEEB224D11}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E48)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E49)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5648,8 +5674,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="33" operator="containsText" id="{92372C09-70EF-4D6D-8200-80A562603968}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E48)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E49)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5659,8 +5685,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{141A8224-8031-402E-AD1A-BADC24E19CF9}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E48)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E49)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5670,8 +5696,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{689A061A-2CFA-463D-9346-5F5245182C5D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E48)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E49)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5680,12 +5706,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E48:E51</xm:sqref>
+          <xm:sqref>E49:E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="28" operator="containsText" id="{B2D2ED50-35B7-45A7-B97B-3A978BB9E390}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E54)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E55)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5695,8 +5721,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="29" operator="containsText" id="{7B2BFD90-6496-4848-8BD9-969614DA1583}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E54)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E55)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5706,8 +5732,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="30" operator="containsText" id="{708C5DA9-100D-422A-BA91-A609EF0F6076}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E54)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E55)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5717,8 +5743,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2BF794BE-666B-4072-A141-AEEEE1F379A2}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E54)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E55)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5727,12 +5753,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E54:E61</xm:sqref>
+          <xm:sqref>E55:E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{D0340C68-1FCC-4430-80AF-5B43EE2B8C40}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E64)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E65)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5742,8 +5768,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="25" operator="containsText" id="{5CAD0BA7-037E-4F96-B943-1B788B571D91}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E64)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E65)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5753,8 +5779,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="26" operator="containsText" id="{F2058C3C-E005-4A50-92FD-3C17D3AD5A89}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E64)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E65)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5764,8 +5790,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="27" operator="containsText" id="{ACA34937-0F96-47BF-B9DB-B8436BA9823E}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E64)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E65)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5774,12 +5800,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E64:E90</xm:sqref>
+          <xm:sqref>E65:E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{F8F0291C-E8F9-441E-B497-7149F8FBB52B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E93)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E94)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5789,8 +5815,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="18" operator="containsText" id="{85F3C2EB-25E8-4AAF-9B6D-EBA7D736C62B}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E93)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E94)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5800,8 +5826,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="19" operator="containsText" id="{502D5C69-9FEF-493C-80E4-DD6DDC6F3383}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E93)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E94)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5811,8 +5837,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="20" operator="containsText" id="{83132336-57F1-41FE-A682-5261FFA5818D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E93)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E94)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5821,12 +5847,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E93:E94</xm:sqref>
+          <xm:sqref>E94:E95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="13" operator="containsText" id="{2C2E23D6-B21C-4CD8-A5BB-59AE30F08E4D}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E97)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E98)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5836,8 +5862,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="14" operator="containsText" id="{495720E9-60AE-42BA-9989-23C88D992E10}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E97)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E98)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5847,8 +5873,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="15" operator="containsText" id="{B8CD9EAB-7B8F-4C26-8DB7-84C4E334F784}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E97)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E98)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5858,8 +5884,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{895C36FB-D223-4A76-9E50-C1A211BF6BBB}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E97)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E98)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5868,12 +5894,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E97:E99</xm:sqref>
+          <xm:sqref>E98:E100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E22B4A38-D5A7-432B-9509-BF22C81C1EF3}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E102)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E103)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5883,8 +5909,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{44BA9894-F2DB-4D02-AF32-7E6C69904ACF}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E102)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E103)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5894,8 +5920,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{C64B6BCF-B3D3-43C9-992D-2DE06127ACA6}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E102)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E103)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5905,8 +5931,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="12" operator="containsText" id="{F4A8A962-1025-412C-81EF-13171406A670}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E102)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E103)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5915,12 +5941,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E102:E110</xm:sqref>
+          <xm:sqref>E103:E111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{50FCF4A3-E38C-492A-B5CD-D7D5972E6668}">
-            <xm:f>NOT(ISERROR(SEARCH($A$130,E113)))</xm:f>
-            <xm:f>$A$130</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$131,E114)))</xm:f>
+            <xm:f>$A$131</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5930,8 +5956,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{724458E4-9915-4FC9-95BF-418A479775FA}">
-            <xm:f>NOT(ISERROR(SEARCH($A$129,E113)))</xm:f>
-            <xm:f>$A$129</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$130,E114)))</xm:f>
+            <xm:f>$A$130</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5941,8 +5967,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{B3D267D0-D2F6-4067-B2AF-39DACBF26CE0}">
-            <xm:f>NOT(ISERROR(SEARCH($A$128,E113)))</xm:f>
-            <xm:f>$A$128</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$129,E114)))</xm:f>
+            <xm:f>$A$129</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5952,8 +5978,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{45890E6E-E969-410D-897A-0410E6F70EE4}">
-            <xm:f>NOT(ISERROR(SEARCH($A$127,E113)))</xm:f>
-            <xm:f>$A$127</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($A$128,E114)))</xm:f>
+            <xm:f>$A$128</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5962,7 +5988,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E113:E124</xm:sqref>
+          <xm:sqref>E114:E125</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5994,16 +6020,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>8</v>
@@ -6015,13 +6041,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -6029,13 +6055,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>26</v>
@@ -6049,7 +6075,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/OWASP_penetration testing checklist.xlsx
+++ b/OWASP_penetration testing checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D20BF4-4ADC-47E3-92F5-1B5656E57DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493AE3E4-6CA0-45FF-99B8-47CBE5DB7967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,15 +742,9 @@
 "HTTP header field ordering" and "Malformed requests test".</t>
   </si>
   <si>
-    <t>Httprint, Httprecon, Desenmascarame</t>
-  </si>
-  <si>
     <t>Browser, curl, wget</t>
   </si>
   <si>
-    <t>Find applications hosted in the webserver (Virtual hosts/Subdomain), non-standard ports, DNS zone transfers</t>
-  </si>
-  <si>
     <t>Find sensitive information from webpage comments and Metadata on source code.</t>
   </si>
   <si>
@@ -760,9 +754,6 @@
     <t>Find the type of web application framework/CMS from HTTP headers, Cookies, Source code, Specific files and folders.</t>
   </si>
   <si>
-    <t>Whatweb, BlindElephant, Wappalyzer</t>
-  </si>
-  <si>
     <t>Identify the web application and version to determine known vulnerabilities and the appropriate exploits.</t>
   </si>
   <si>
@@ -809,9 +800,6 @@
   </si>
   <si>
     <t>Nessus, Nikto, Wikto</t>
-  </si>
-  <si>
-    <t>netcat, curl</t>
   </si>
   <si>
     <t>Identify HTTP allowed methods on Web server with OPTIONS. Arbitrary HTTP Methods, HEAD access control bypass and XST</t>
@@ -1146,9 +1134,6 @@
     <t>Burp proxy, ZAP</t>
   </si>
   <si>
-    <t>Burp proxy, ZAP, Tamper data</t>
-  </si>
-  <si>
     <t>Burp Proxy, ZAP, curl</t>
   </si>
   <si>
@@ -1195,12 +1180,6 @@
     <t>Immunity Canvas, Spike, MSF, Nessus</t>
   </si>
   <si>
-    <t>Whatweb, BlindElephant, Wappalyzer, CMSmap</t>
-  </si>
-  <si>
-    <t>Webhosting.info, dnsrecon, Nmap, fierce, Recon-ng, Intrigue</t>
-  </si>
-  <si>
     <t>FlashBang, Flare, Flasm, SWFScan, SWF Intruder</t>
   </si>
   <si>
@@ -1232,9 +1211,6 @@
 (Exp: google hacking: site:example.com ; site:example.com ext:pdf  ; "index of/" site:example.com ;</t>
   </si>
   <si>
-    <t>Google Hacking, Shodan.io, FOCA, Punkspider</t>
-  </si>
-  <si>
     <t>Identify directories</t>
   </si>
   <si>
@@ -1245,6 +1221,30 @@
   </si>
   <si>
     <t>Analyze robots.txt , sitemap.xml and identify &lt;META&gt; Tags from website.</t>
+  </si>
+  <si>
+    <t>Google Hacking, Shodan.io, netcraft.com, archive.org ,wapalyzer</t>
+  </si>
+  <si>
+    <t>wapalyzer, Burp, shodan.io, netcraft.com, Httprint, Httprecon, Desenmascarame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hackertarget.com/whatweb-scan/, Wappalyzer, </t>
+  </si>
+  <si>
+    <t>Browser, curl, wget, Burp</t>
+  </si>
+  <si>
+    <t>Burp, netcat, curl</t>
+  </si>
+  <si>
+    <t>Find applications hosted in the webserver (Virtual hosts, Subdomain), non-standard ports, DNS zone transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shodan.io, virustotal.com, Webhosting.info, dnsrecon,hackertarget.com/zone-transfer/ Nmap,  Recon-ng, </t>
+  </si>
+  <si>
+    <t>Wappalyzer</t>
   </si>
 </sst>
 </file>
@@ -1559,314 +1559,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2856,6 +2548,314 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2870,14 +2870,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="A4:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="65"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2885,14 +2885,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A97:F100" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A97:F100" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A97:F100" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2900,14 +2900,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A113:F125" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A113:F125" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A113:F125" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2915,14 +2915,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A17:F25" totalsRowShown="0" headerRowDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A17:F25" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="A17:F25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="59"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2930,14 +2930,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A36:F46" totalsRowShown="0" headerRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A36:F46" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A36:F46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="53"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2945,14 +2945,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A54:F62" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A54:F62" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A54:F62" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="47"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2960,14 +2960,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A48:F52" totalsRowShown="0" headerRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A48:F52" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="A48:F52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="41"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2975,14 +2975,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A102:F111" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A102:F111" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A102:F111" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="35"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2990,14 +2990,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A64:F91" totalsRowShown="0" headerRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A64:F91" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A64:F91" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="29"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3005,14 +3005,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A27:F34" totalsRowShown="0" headerRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A27:F34" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A27:F34" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3020,14 +3020,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A93:F95" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A93:F95" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A93:F95" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3357,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B1" s="31"/>
       <c r="E1" s="11"/>
@@ -3415,16 +3415,16 @@
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>226</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>29</v>
@@ -3449,16 +3449,16 @@
         <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -3466,10 +3466,10 @@
         <v>45</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>29</v>
@@ -3483,10 +3483,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>29</v>
@@ -3497,13 +3497,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
@@ -3517,16 +3517,16 @@
         <v>47</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3534,10 +3534,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>29</v>
@@ -3552,17 +3552,17 @@
         <v>49</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>29</v>
@@ -3587,10 +3587,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>29</v>
@@ -3632,10 +3632,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>29</v>
@@ -3649,10 +3649,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>29</v>
@@ -3669,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>29</v>
@@ -3686,7 +3686,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
@@ -3703,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>29</v>
@@ -3717,10 +3717,10 @@
         <v>64</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>29</v>
@@ -3734,10 +3734,10 @@
         <v>65</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>29</v>
@@ -3752,10 +3752,10 @@
         <v>66</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>29</v>
@@ -3796,10 +3796,10 @@
         <v>75</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>29</v>
@@ -3813,10 +3813,10 @@
         <v>76</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>29</v>
@@ -3831,10 +3831,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>29</v>
@@ -3852,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>29</v>
@@ -3867,10 +3867,10 @@
         <v>79</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>29</v>
@@ -3885,10 +3885,10 @@
         <v>80</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>29</v>
@@ -3903,10 +3903,10 @@
         <v>81</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>29</v>
@@ -3948,10 +3948,10 @@
         <v>92</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>29</v>
@@ -3965,10 +3965,10 @@
         <v>93</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>29</v>
@@ -3982,10 +3982,10 @@
         <v>94</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>29</v>
@@ -3999,10 +3999,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>29</v>
@@ -4016,10 +4016,10 @@
         <v>96</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>29</v>
@@ -4033,10 +4033,10 @@
         <v>97</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>29</v>
@@ -4050,10 +4050,10 @@
         <v>98</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>29</v>
@@ -4068,10 +4068,10 @@
         <v>99</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>29</v>
@@ -4085,10 +4085,10 @@
         <v>100</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>29</v>
@@ -4102,10 +4102,10 @@
         <v>101</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>29</v>
@@ -4146,10 +4146,10 @@
         <v>106</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>29</v>
@@ -4163,10 +4163,10 @@
         <v>107</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>29</v>
@@ -4183,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>29</v>
@@ -4197,10 +4197,10 @@
         <v>109</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>29</v>
@@ -4243,10 +4243,10 @@
         <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>29</v>
@@ -4260,10 +4260,10 @@
         <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>29</v>
@@ -4277,10 +4277,10 @@
         <v>121</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>29</v>
@@ -4295,10 +4295,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>29</v>
@@ -4312,10 +4312,10 @@
         <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>29</v>
@@ -4329,10 +4329,10 @@
         <v>124</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>29</v>
@@ -4346,10 +4346,10 @@
         <v>125</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>29</v>
@@ -4363,10 +4363,10 @@
         <v>126</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>29</v>
@@ -4409,10 +4409,10 @@
         <v>127</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>29</v>
@@ -4426,10 +4426,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>29</v>
@@ -4443,10 +4443,10 @@
         <v>129</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>29</v>
@@ -4461,10 +4461,10 @@
         <v>130</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>29</v>
@@ -4478,10 +4478,10 @@
         <v>131</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>29</v>
@@ -4493,10 +4493,10 @@
         <v>132</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>29</v>
@@ -4508,10 +4508,10 @@
         <v>133</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>29</v>
@@ -4523,10 +4523,10 @@
         <v>134</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>29</v>
@@ -4537,10 +4537,10 @@
         <v>135</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>29</v>
@@ -4553,10 +4553,10 @@
         <v>136</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>29</v>
@@ -4568,10 +4568,10 @@
         <v>137</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>29</v>
@@ -4585,10 +4585,10 @@
         <v>138</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>29</v>
@@ -4605,7 +4605,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>29</v>
@@ -4619,10 +4619,10 @@
         <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>29</v>
@@ -4636,10 +4636,10 @@
         <v>141</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>29</v>
@@ -4653,10 +4653,10 @@
         <v>142</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>29</v>
@@ -4670,10 +4670,10 @@
         <v>143</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>29</v>
@@ -4687,10 +4687,10 @@
         <v>144</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>29</v>
@@ -4702,10 +4702,10 @@
         <v>145</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>29</v>
@@ -4718,10 +4718,10 @@
         <v>146</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>29</v>
@@ -4736,10 +4736,10 @@
         <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>29</v>
@@ -4757,7 +4757,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>29</v>
@@ -4808,10 +4808,10 @@
         <v>152</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>29</v>
@@ -4829,7 +4829,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>29</v>
@@ -4871,10 +4871,10 @@
         <v>171</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>29</v>
@@ -4889,10 +4889,10 @@
         <v>172</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>29</v>
@@ -4934,10 +4934,10 @@
         <v>176</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>29</v>
@@ -4952,10 +4952,10 @@
         <v>177</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>29</v>
@@ -4970,10 +4970,10 @@
         <v>178</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>29</v>
@@ -5014,10 +5014,10 @@
         <v>192</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>29</v>
@@ -5031,10 +5031,10 @@
         <v>193</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>29</v>
@@ -5048,10 +5048,10 @@
         <v>194</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>29</v>
@@ -5066,10 +5066,10 @@
         <v>195</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>29</v>
@@ -5084,10 +5084,10 @@
         <v>196</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>29</v>
@@ -5102,10 +5102,10 @@
         <v>197</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>29</v>
@@ -5120,10 +5120,10 @@
         <v>198</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>29</v>
@@ -5138,10 +5138,10 @@
         <v>199</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>29</v>
@@ -5156,10 +5156,10 @@
         <v>200</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>29</v>
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>29</v>
@@ -5220,10 +5220,10 @@
         <v>215</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>29</v>
@@ -5238,10 +5238,10 @@
         <v>216</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>29</v>
@@ -5256,10 +5256,10 @@
         <v>217</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>29</v>
@@ -5274,10 +5274,10 @@
         <v>218</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>29</v>
@@ -5292,10 +5292,10 @@
         <v>219</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E119" s="20" t="s">
         <v>29</v>
@@ -5310,10 +5310,10 @@
         <v>220</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>29</v>
@@ -5331,7 +5331,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>29</v>
@@ -5346,10 +5346,10 @@
         <v>222</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>29</v>
@@ -5364,10 +5364,10 @@
         <v>223</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>29</v>
@@ -5381,10 +5381,10 @@
         <v>224</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>29</v>
@@ -5399,10 +5399,10 @@
         <v>225</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>29</v>
@@ -6001,7 +6001,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6020,16 +6020,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>8</v>
@@ -6041,13 +6041,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -6055,13 +6055,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>26</v>
@@ -6075,7 +6075,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
